--- a/medicine/Psychotrope/Cheroot/Cheroot.xlsx
+++ b/medicine/Psychotrope/Cheroot/Cheroot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cheroot (ou Stogie) est un cigare coupé aux deux extrémités au cours de sa fabrication. Ils peuvent être fabriqués mécaniquement à bas prix, ce qui leur assure une grande diffusion. Les stogies ont une longueur de 9 à 16 cm, pour un diamètre d'environ 1,3 cm.
-Le mot cheroot vient du français cheroute, lui-même issu du tamoul curuttu/churuttu/shuruttu - rouleau de tabac. Il serait passé en français au début du XVIe siècle, à l'occasion des premières implantations françaises dans le sud de l'Inde[1].
+Le mot cheroot vient du français cheroute, lui-même issu du tamoul curuttu/churuttu/shuruttu - rouleau de tabac. Il serait passé en français au début du XVIe siècle, à l'occasion des premières implantations françaises dans le sud de l'Inde.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>En Asie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cheroots sont très populaires en Birmanie et en Inde ; il l'étaient aussi parmi les Britanniques au moment de l'Empire. Dans la littérature anglosaxonne, ils sont souvent associés à la Birmanie :
 « 'Er petticoat was yaller an' 'er little cap was green,
@@ -556,7 +570,9 @@
           <t>Aux États-Unis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mark Twain était un grand amateur de stogies. C'est aussi le cas de Rush Limbaugh (1951-2021) et du cinéaste Francis Ford Coppola, qui possède sa propre marque de stogies.
 </t>
